--- a/aggregated_output/HONULULU_aggregated.xlsx
+++ b/aggregated_output/HONULULU_aggregated.xlsx
@@ -438,35 +438,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The syllabus is explicitly mentioned as a necessary step to begin the course in the welcome text. Abi, who prefers to gather comprehensive information before starting a task, will recognize the importance of reading the syllabus to understand the course structure and requirements. This aligns with Abi's motivation to accomplish tasks and their information processing style of gathering all necessary information before proceeding.</t>
+Why: The syllabus is a crucial document that outlines the course structure, objectives, and requirements. Abi, who prefers to gather comprehensive information before proceeding, would consider finding the syllabus an essential step toward understanding the course and getting started. The page explicitly mentions the importance of reading the syllabus, which aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page explicitly mentions that to begin the course, Abi should click on "Syllabus" in the left pane and read through it carefully. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as the syllabus is likely to contain important information about the course structure and requirements.</t>
+Facets: Motivations, Information Processing Style
+Why: The syllabus is a crucial document that outlines the course structure, objectives, and requirements. Abi, who prefers to gather comprehensive information before proceeding, would consider finding the syllabus an essential step toward understanding the course and getting started. The page also explicitly mentions the importance of reading the syllabus, reinforcing its significance.</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page explicitly mentions that to begin the course, Abi should click on "Syllabus" in the left pane and read through it carefully. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as the syllabus contains important information necessary to start the course.</t>
+Why: The syllabus is a crucial document that outlines the course structure, objectives, and requirements. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would likely consider finding the syllabus an essential step toward getting started with the course. The syllabus provides foundational information that will help her understand what to expect and how to proceed with the course.</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The syllabus is explicitly mentioned as a necessary step to begin the course in the welcome text. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all relevant information before starting the course.</t>
+Why: The syllabus is a crucial document that outlines the course structure, objectives, and requirements. Abi, who prefers to gather comprehensive information before proceeding, would consider finding the syllabus an essential step toward understanding the course and getting started. The page explicitly mentions the importance of reading the syllabus, which aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style.</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page explicitly instructs users to begin the course by clicking on the "Syllabus" link in the left pane and reading through it carefully. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she is likely to follow the provided instructions to understand the course requirements and structure.</t>
+Why: The syllabus is a crucial document that outlines the course structure, requirements, and schedule. Abi, who prefers to gather comprehensive information before starting a task, would consider finding the syllabus an essential step toward understanding the course and getting started. The page also explicitly mentions the importance of reading the syllabus, reinforcing its significance.</t>
         </is>
       </c>
     </row>
@@ -475,35 +475,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly instructs Abi to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as the instructions are straightforward and provide a clear next step.</t>
+Why: The page clearly instructs Abi to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she is likely to follow the step-by-step instructions provided to gather all necessary information before proceeding.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly instructs Abi to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as they are likely to follow the step-by-step instructions provided to gather all necessary information.</t>
+Facets: Information Processing Style, Learning Style
+Why: The page clearly instructs Abi to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's preference for process-oriented learning and comprehensive information processing. The explicit instruction provides clear guidance on what to do next, making it easy for Abi to follow the step.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly instructs Abi to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as the syllabus is an essential part of starting the course. The instruction is straightforward and easy to follow, making it clear what Abi needs to do at this step.</t>
+Why: The page explicitly instructs Abi to click on "Syllabus" in the left pane to begin the course. This clear instruction aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style. The highlighted text and the clear call to action make it evident what Abi needs to do at this step.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The welcome text on the page clearly instructs Abi to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would follow the step-by-step instructions provided.</t>
+Why: The page clearly instructs Abi to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she prefers clear, step-by-step instructions. The explicit mention of the syllabus and its importance provides Abi with the necessary guidance to know what to do at this step.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly instructs users to begin the course by clicking on the "Syllabus" link in the left pane. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she is likely to follow the provided instructions to understand the course requirements and structure. The explicit mention of the "Syllabus" link makes it clear what Abi needs to do at this step.</t>
+Why: The page clearly instructs Abi to click on "Syllabus" in the left pane to begin the course. This aligns with Abi's motivation to gather comprehensive information and her preference for clear, step-by-step instructions. The explicit mention of the syllabus and its importance makes it clear what Abi needs to do at this step.</t>
         </is>
       </c>
     </row>
@@ -512,35 +512,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Syllabus," Abi lands on a page titled "Course Syllabus," which includes detailed information about the course schedule and assignments. This clear and comprehensive presentation of the syllabus will confirm to Abi that they have done the right thing and are making progress toward their goal of getting started with the course. The detailed information aligns with Abi's motivation to accomplish tasks and their preference for a comprehensive information processing style.</t>
+Why: After clicking on "Syllabus," Abi lands on a page titled "Course Syllabus," which contains detailed information about the course schedule and other relevant documents. This page provides comprehensive information, including a weekly schedule, which aligns with Abi's motivation to gather all necessary information and her comprehensive information processing style. Abi will know she is making progress toward her goal of getting started with the course by finding and reviewing the syllabus.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Syllabus," Abi lands on a page titled "Course Syllabus," which includes detailed information about the weekly schedule and other relevant course materials. This confirms to Abi that they have done the right thing and are making progress toward their goal. The comprehensive information provided aligns with Abi's motivation to accomplish tasks and their preference for a thorough information processing style.</t>
+Facets: Information Processing Style, Motivations
+Why: After clicking on "Syllabus," Abi lands on a page titled "Course Syllabus," which includes detailed information about the course schedule and assignments. This aligns with Abi's comprehensive information processing style, as the page provides a clear and detailed overview of what to expect in the course. The presence of the syllabus and related documents confirms that Abi has made progress toward the goal of getting started with the course.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Syllabus," Abi lands on a page titled "Course Syllabus," which includes detailed information about the weekly schedule and other relevant course materials. This confirms to Abi that they have done the right thing and are making progress toward their goal. The page provides comprehensive information, aligning with Abi's motivation to accomplish tasks and their comprehensive information processing style.</t>
+Why: After clicking on "Syllabus," Abi lands on a page titled "Course Syllabus," which clearly indicates that she has found the correct section. The page contains detailed information, including a weekly schedule and links to various syllabus-related documents. This comprehensive information aligns with Abi's motivation to accomplish tasks and her preference for a thorough understanding of the material. The clear labeling and detailed content will help Abi feel confident that she is making progress toward her goal.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Syllabus," Abi lands on a page titled "Course Syllabus," which includes detailed information about the weekly schedule and other relevant course materials. This clear and comprehensive presentation of the syllabus aligns with Abi's motivation to gather all necessary information and her comprehensive information processing style. Abi will know she is making progress toward her goal and has access to all the information she needs.</t>
+Why: After clicking on "Syllabus," Abi lands on a page titled "Course Syllabus," which includes detailed information about the course schedule and assignments. This page provides comprehensive information, aligning with Abi's preference for gathering all necessary details before proceeding. The clear presentation of the syllabus confirms to Abi that she has done the right thing and is making progress toward her goal of getting started with the course.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "Syllabus" link, Abi lands on a page titled "Course Syllabus," which includes detailed information about the course schedule and assignments. This confirms to Abi that she has done the right thing and is making progress toward her goal of getting started with the course. The comprehensive information provided aligns with her information processing style, ensuring she has all the necessary details to proceed.</t>
+Why: After clicking on "Syllabus," Abi lands on a page titled "Course Syllabus," which includes detailed information about the course schedule and requirements. This page provides comprehensive information, aligning with Abi's preference for gathering all necessary details before starting a task. The clear presentation of the syllabus confirms to Abi that she is making progress toward her goal of getting started with the course.</t>
         </is>
       </c>
     </row>
@@ -549,35 +549,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Reading the syllabus is a crucial step in understanding the course structure, requirements, and schedule. Abi, who prefers to gather comprehensive information before starting a task, will recognize the importance of reading the syllabus to get a complete understanding of what the course entails. This aligns with Abi's motivation to accomplish tasks and their information processing style of gathering all necessary information before proceeding.</t>
+Why: Reading the syllabus is a critical step in understanding the course structure, requirements, and schedule. Abi, who is motivated to accomplish tasks and prefers to gather comprehensive information, would consider reading the syllabus an essential step toward getting started with the course. The syllabus provides detailed information that aligns with Abi's need to form a complete understanding before proceeding.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Reading the syllabus is a crucial step in understanding the course structure, requirements, and schedule. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as the syllabus provides detailed information necessary for getting started with the course.</t>
+Facets: Motivations, Information Processing Style
+Why: Reading the syllabus is a critical step in understanding the course structure, requirements, and expectations. Abi, who prefers to gather comprehensive information before proceeding, would consider reading the syllabus an essential step toward getting started with the course. The page provides detailed information about the weekly schedule and assignments, which aligns with Abi's need for thorough understanding.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Reading the syllabus is a crucial step in understanding the course structure, requirements, and schedule. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as the syllabus provides detailed information necessary to get started with the course.</t>
+Why: Reading the syllabus is a fundamental step in understanding the course structure, requirements, and expectations. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would consider reading the syllabus an essential step toward getting started with the course. The syllabus provides detailed information that will help her prepare and plan for the course effectively.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Reading the syllabus is a crucial step in understanding the course structure, requirements, and schedule. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all relevant information before proceeding with the course.</t>
+Why: Reading the syllabus is a fundamental step in understanding the course structure, requirements, and schedule. Abi, who prefers to gather comprehensive information before proceeding, would consider reading the syllabus an essential step toward getting started with the course. The detailed weekly schedule and other relevant information provided in the syllabus align with Abi's motivation to accomplish tasks and her comprehensive information processing style.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Reading the syllabus is a crucial step in understanding the course structure, requirements, and schedule. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would want to gather all necessary information before proceeding with the course. The detailed syllabus page provides the information she needs to get started effectively.</t>
+Why: Reading the syllabus is a critical step for Abi to understand the course structure, requirements, and schedule. Given Abi's motivation to gather comprehensive information and her preference for detailed instructions, she would consider reading the syllabus an essential step toward getting started with the course. The page provides detailed information, which aligns with her information processing style.</t>
         </is>
       </c>
     </row>
@@ -586,35 +586,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists "Syllabus (PDF)" as an option under "Course Syllabus," indicating that clicking on it will provide the syllabus in PDF format. This aligns with Abi's motivation to gather all necessary information and their comprehensive information processing style. The label is clear and directly related to the task of reading the syllabus, so Abi will know what to do at this step.</t>
+Why: The page clearly labels the link "Syllabus (PDF)" and places it prominently under the "Course Syllabus" section. Abi, who is motivated to gather all necessary information and prefers a comprehensive information processing style, will recognize that clicking on this link will provide her with the detailed syllabus document she needs to read. The clear labeling and placement make it evident what action to take next.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists "Syllabus (PDF)" as an option under "Course Syllabus," indicating that clicking on it will provide the syllabus in PDF format. This aligns with Abi's motivation to gather all necessary information and their comprehensive information processing style, as they are likely to follow the provided options to access detailed course information.</t>
+Facets: Information Processing Style, Learning Style
+Why: The page provides a clear link labeled "Syllabus (PDF)" which indicates that clicking it will open the syllabus in PDF format. This aligns with Abi's preference for process-oriented learning and comprehensive information processing. The label is explicit and straightforward, making it clear to Abi what action to take next to read the syllabus.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a clear link labeled "Syllabus (PDF)" which indicates that clicking it will open the syllabus in PDF format. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, as they are looking for detailed information about the course. The label is straightforward and indicates exactly what Abi will get by clicking it.</t>
+Why: The page clearly labels the link "Syllabus (PDF)" and places it prominently under the "Course Syllabus" section. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she will understand that clicking on this link will provide her with the detailed syllabus document she needs to read. The clear labeling and placement make it evident what she needs to do at this step.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Syllabus (PDF)" link is clearly labeled and prominently displayed on the page. Given Abi's motivation to gather all necessary information and her comprehensive information processing style, she will understand that clicking this link will provide her with the detailed syllabus in PDF format, which is a logical step toward reading and understanding the course requirements.</t>
+Why: The page clearly labels the link "Syllabus (PDF)" and places it under the "Course Syllabus" section. This aligns with Abi's motivation to read the syllabus and her comprehensive information processing style. The explicit labeling and placement make it clear that clicking on this link will provide the detailed syllabus in PDF format, which is a logical next step for Abi to achieve her subgoal of reading the syllabus.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Syllabus (PDF)" link is clearly labeled and prominently displayed on the page. This aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style, as she would recognize that clicking this link will provide her with the detailed syllabus in a downloadable format. The clear labeling and placement make it evident what Abi needs to do at this step.</t>
+Why: The page clearly labels the link as "Syllabus (PDF)," making it evident that clicking this link will open the syllabus document. Abi, who is motivated to gather comprehensive information and prefers clear instructions, will understand that clicking this link is the next step to read the syllabus. The explicit labeling and the context provided on the page align with her information processing style.</t>
         </is>
       </c>
     </row>
@@ -623,72 +623,72 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Syllabus (PDF)," Abi lands on a page that provides a detailed syllabus, including course rules, response times, course description, content, learning outcomes, and course tools. This comprehensive information will confirm to Abi that they have done the right thing and are making progress toward their goal of getting started with the course. The detailed and organized presentation aligns with Abi's motivation to gather all necessary information and their comprehensive information processing style.</t>
+Why: After clicking on "Syllabus (PDF)," Abi lands on a detailed document that includes comprehensive information about the course, such as instructor details, course content, response times, prerequisites, and learning outcomes. This aligns with Abi's motivation to gather all necessary information and her comprehensive information processing style. The detailed syllabus document provides all the information she needs, confirming that she did the right thing and is making progress toward her goal of getting started with the course.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Syllabus (PDF)," Abi lands on a page that provides a detailed syllabus, including course rules, response times, course description, content, learning outcomes, and tools. This comprehensive information confirms to Abi that they have done the right thing and are making progress toward their goal of getting started with the course. The detailed syllabus aligns with Abi's motivation to gather all necessary information and their preference for a thorough information processing style.</t>
+Facets: Information Processing Style, Motivations
+Why: After clicking on "Syllabus (PDF)," Abi lands on a detailed document that includes comprehensive information about the course, such as instructor details, fundamental rules, response times, course description, content, learning outcomes, and course tools. This aligns with Abi's need for thorough and detailed information to feel confident about getting started with the course. The document provides all the necessary information, confirming that Abi has made progress toward the goal of reading the syllabus and getting started with the course.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Syllabus (PDF)," Abi lands on a page that contains the detailed syllabus for the course. This includes essential information such as course rules, response times, course content, learning outcomes, and course tools. This comprehensive information aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, confirming that they did the right thing and are making progress toward their goal.</t>
+Why: After clicking on "Syllabus (PDF)," Abi lands on a detailed document that includes comprehensive information about the course, such as instructor details, fundamental rules, response times, course description, content, learning outcomes, and course tools. This aligns with Abi's motivation to accomplish tasks and her preference for a thorough understanding of the material. The detailed and organized presentation of the syllabus will help Abi feel confident that she is making progress toward her goal and has all the information she needs to get started with the course.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Syllabus (PDF)," Abi lands on a detailed document that includes comprehensive information about the course, such as fundamental rules, response times, course content, learning outcomes, and course tools. This aligns with Abi's motivation to gather all necessary information and her comprehensive information processing style. Abi will know she is making progress toward her goal and has access to all the information she needs to get started with the course.</t>
+Why: After clicking on "Syllabus (PDF)," Abi lands on a detailed document that includes comprehensive information about the course, such as instructor details, fundamental rules, response times, course description, content, learning outcomes, and course tools. This aligns with Abi's motivation to gather all necessary information and her comprehensive information processing style. The detailed syllabus confirms to Abi that she has done the right thing and is making progress toward her goal of getting started with the course.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the "Syllabus (PDF)" link, Abi lands on a page that provides a detailed syllabus, including course rules, response times, course description, content, learning outcomes, and tools. This comprehensive information aligns with Abi's motivation to accomplish tasks and her comprehensive information processing style. She will know she did the right thing and is making progress toward her goal of getting started with the course, as she has access to all the necessary details.</t>
+Why: After clicking on "Syllabus (PDF)," Abi lands on a detailed document that includes comprehensive information about the course, such as fundamental rules, response times, course description, content, learning outcomes, and course tools. This aligns with Abi's motivation to gather all necessary information and her preference for detailed, structured content. The document provides a thorough overview, confirming to Abi that she is making progress toward her goal of getting started with the course and has all the information she needs.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The syllabus page provides a comprehensive overview of the course, including the course content and learning outcomes. Reading information under "Modules" will help Abi understand the structure and content of the course, which is essential for getting started. This aligns with Abi's motivation to gather all necessary information and their comprehensive information processing style. Therefore, Abi will consider reading information under "Modules" as a step toward achieving the overall use case.</t>
+          <t>Answer: NO
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The current page is the syllabus PDF, which provides an overview of the course, including fundamental rules, response times, course content, and learning outcomes. While this information is essential, it does not explicitly direct Abi to read information under "Modules" as a next step. Abi, who prefers comprehensive information and step-by-step instructions, might not immediately think to look under "Modules" without a clear prompt or instruction. Therefore, she might not consider this a step toward achieving the overall use case of getting started with the course.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style, 3. Attitude Towards Risk
-Why: The current page provides detailed information about the syllabus, including course rules, content, and tools. However, it does not explicitly mention the need to read information under "Modules" as a step toward getting started with the course. Given Abi's motivation to follow clear instructions and their comprehensive information processing style, they might not think of checking the "Modules" section unless explicitly directed to do so. Additionally, Abi's risk-averse nature means they are less likely to explore unfamiliar sections without clear guidance.</t>
+Facets: None of the Above
+Why: The subgoal of reading information under "Modules" is not directly indicated or suggested by the current page, which is focused on the syllabus. The syllabus page provides comprehensive information about the course structure, rules, and content, but it does not explicitly direct Abi to read information under "Modules" as a next step. Therefore, Abi might not naturally think of this as a step toward achieving the overall use case of getting started with the course based on the information provided on this page.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Reading information under "Modules" is a logical step toward getting started with the course because it provides detailed content about what will be covered in each module. Given Abi's motivation to accomplish tasks and her comprehensive information processing style, she would consider understanding the modules an essential step. This information will help her prepare for the course structure and content, ensuring she knows what to expect and how to plan her studies effectively.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The current page is the syllabus in PDF format, which provides a comprehensive overview of the course, including rules, response times, course content, learning outcomes, and tools. While this information is crucial for understanding the course, it does not explicitly direct Abi to read information under "Modules" as a next step. Abi might not immediately think of looking under "Modules" from this page, as their current focus is on understanding the syllabus content.</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The syllabus PDF provides a comprehensive overview of the course, including fundamental rules, response times, course content, learning outcomes, and course tools. However, it does not explicitly mention the need to read information under "Modules" as a step toward getting started with the course. Abi, who prefers clear instructions and comprehensive information, might not immediately think of reading the "Modules" section as a necessary step based on the information provided in the syllabus PDF alone.</t>
+Why: While the syllabus provides comprehensive information about the course, it does not explicitly mention the need to read information under "Modules" as a step toward getting started with the course. Abi, who prefers clear, step-by-step instructions and comprehensive information, might not immediately think of reading the "Modules" section without explicit guidance. The current page focuses on the syllabus content, and there is no direct indication that reading the "Modules" section is a necessary next step.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The current page provides detailed information about the course syllabus, including course rules, response times, course description, content, learning outcomes, and tools. However, it does not explicitly mention the need to read information under "Modules" as a step toward getting started with the course. Abi, who prefers comprehensive information and clear instructions, might not immediately think of checking the "Modules" section without explicit guidance. Therefore, she may not consider this a necessary step toward achieving her overall use case.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The syllabus document includes a section on "Course content" that lists "modules" as one of the topics. Given Abi's motivation to gather comprehensive information and her preference for detailed, structured content, she would consider reading information under "Modules" as an essential step toward understanding the course structure and getting started. This aligns with her goal of being well-prepared for the course.</t>
         </is>
       </c>
     </row>
@@ -696,36 +696,36 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The current page does not provide explicit instructions or context about what "Modules" entails or why Abi should click on it next. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, they might not feel confident about clicking on "Modules" without clear guidance or instructions. Abi might need more explicit directions or context to understand that clicking on "Modules" is the next step to read the necessary information.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The current page is the syllabus PDF, which does not provide explicit instructions or prompts to click on "Modules" next. Abi, who prefers comprehensive information and step-by-step instructions, might not immediately know to click on "Modules" without a clear indication. Additionally, Abi's low computer self-efficacy means she might hesitate to take actions without clear guidance, making it less likely she will know what to do at this step.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The current page does not provide explicit instructions or context about clicking on "Modules." Given Abi's motivation to follow clear instructions and their comprehensive information processing style, they might not know to click on "Modules" without explicit guidance. Additionally, Abi's low computer self-efficacy means they are less likely to take actions without clear instructions, as they might fear making a mistake or not knowing what to expect.</t>
+Facets: Computer Self-Efficacy, Learning Style
+Why: The current page does not provide explicit instructions or context about what to do next, such as clicking on "Modules." Abi, who has low confidence in unfamiliar computing tasks and prefers process-oriented learning, might not know that clicking on "Modules" is the next step. The page focuses on the syllabus content without guiding Abi to the next action, which could lead to uncertainty about what to do next.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The current page is the syllabus in PDF format, which does not provide explicit instructions or a clear indication that Abi should click on "Modules" next. Given Abi's low confidence in doing unfamiliar computing tasks and preference for process-oriented learning, they might not know to click on "Modules" without explicit guidance. The page does not direct Abi to the "Modules" section, making it unclear what to do next.</t>
+Why: The current page does not provide explicit instructions or a clear call to action for Abi to click on "Modules." Given Abi's low confidence in unfamiliar computing tasks and her preference for process-oriented learning, she may not immediately know that clicking on "Modules" is the next step. The page focuses on the syllabus content without guiding her to the next action, which could cause uncertainty for Abi.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The current page does not provide explicit instructions or guidance on what to do next, such as clicking on "Modules." Abi, who prefers clear, step-by-step instructions and has low confidence in performing unfamiliar computing tasks, might not know that clicking on "Modules" is the next step. The page focuses on the syllabus content without indicating that further information under "Modules" is necessary, which could leave Abi uncertain about what to do next.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The current page does not provide explicit instructions or context about what the "Modules" section contains or why Abi should click on it. Given Abi's low confidence in unfamiliar computing tasks and preference for process-oriented learning, she might not feel confident or motivated to click on "Modules" without clear guidance or instructions indicating that it is the next step.</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The current page does not provide explicit instructions or guidance on what to do next, particularly regarding clicking on "Modules." Given Abi's low confidence in performing unfamiliar computing tasks and her preference for process-oriented learning, she may not know that she needs to click on "Modules" to proceed. The lack of clear instructions or a step-by-step process on this page could make it difficult for Abi to know what to do at this step.</t>
+Why: The current page does not provide explicit instructions or a clear indication that Abi should click on "Modules" next. Given Abi's low confidence in unfamiliar computing tasks and her preference for process-oriented learning with clear, step-by-step instructions, she might not know that clicking on "Modules" is the next step. The page does not guide her to this action, which could cause uncertainty.</t>
         </is>
       </c>
     </row>
@@ -734,35 +734,35 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Modules," Abi lands on a page that provides a detailed breakdown of the course modules, including various lessons, assignments, quizzes, and other relevant information. This comprehensive and organized presentation will confirm to Abi that they have done the right thing and are making progress toward their goal of getting started with the course. The detailed information aligns with Abi's motivation to gather all necessary information and their comprehensive information processing style.</t>
+Why: After clicking on "Modules," Abi lands on a page that provides a detailed breakdown of the course modules, including various lessons, assignments, quizzes, and other resources. This aligns with Abi's motivation to gather all necessary information and her comprehensive information processing style. The structured and detailed layout of the modules page will help Abi understand that she is making progress toward her goal of getting started with the course and provides her with the information she needs to proceed.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Modules," Abi lands on a page that provides a detailed breakdown of the course modules, including various sections and tasks to be completed. This comprehensive layout confirms to Abi that they have done the right thing and are making progress toward their goal of getting started with the course. The detailed information aligns with Abi's motivation to gather all necessary information and their preference for a thorough information processing style.</t>
+Facets: Information Processing Style, Motivations
+Why: After clicking on "Modules," Abi lands on a page that provides a detailed breakdown of the course modules, including lessons, assignments, quizzes, and other relevant information. This aligns with Abi's preference for comprehensive information processing, as the page offers a clear and structured overview of the course content. The detailed layout and organization of the modules will help Abi understand that they are making progress toward their goal of getting started with the course and accessing all necessary information.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Modules," Abi lands on a page that lists all the course modules in a structured and detailed manner. This page provides comprehensive information about each module, including lessons, assignments, quizzes, and other relevant materials. This aligns with Abi's motivation to accomplish tasks and their comprehensive information processing style, confirming that they did the right thing and are making progress toward their goal. The detailed layout ensures that Abi gets all the information they need to get started with the course.</t>
+Why: After clicking on "Modules," Abi lands on a page that clearly lists all the modules with detailed information about each one, including lessons, assignments, quizzes, and other relevant content. This comprehensive layout aligns with Abi's motivation to accomplish tasks and her preference for a thorough understanding of the material. The organized presentation of the modules will help Abi feel confident that she is making progress toward her goal and has access to all the information she needs to get started with the course.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Modules," Abi lands on a page that provides a detailed breakdown of the course modules, including various sections and tasks. This aligns with Abi's motivation to gather all necessary information and her comprehensive information processing style. The structured and detailed presentation of the modules will help Abi understand that she is making progress toward her goal and has access to all the information she needs to get started with the course.</t>
+Why: After clicking on "Modules," Abi lands on a page that provides a detailed breakdown of the course modules, including lessons, assignments, quizzes, and other relevant information. This aligns with Abi's motivation to gather all necessary information and her comprehensive information processing style. The clear structure and detailed content confirm to Abi that she has done the right thing and is making progress toward her goal of getting started with the course. The page provides all the information she needs to understand the course modules and their requirements.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Modules," Abi lands on a page that provides a detailed breakdown of the course modules, including various lessons, assignments, quizzes, and other relevant information. This comprehensive layout aligns with Abi's motivation to accomplish tasks and her preference for a thorough understanding of the course structure. The detailed and organized presentation of the modules will help Abi know that she did the right thing and is making progress toward her goal of getting started with the course.</t>
+Why: After clicking on "Modules," Abi lands on a page that provides a detailed breakdown of the course modules, including various sections and tasks. This aligns with Abi's motivation to gather comprehensive information and her preference for detailed, structured content. The clear organization and extensive information on this page will confirm to Abi that she is making progress toward her goal of understanding the course structure and getting started. The page provides all the necessary information she needs about the modules.</t>
         </is>
       </c>
     </row>
